--- a/Excel Dataframes, EDA and Predictive Modelling/EPL_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/EPL_last10.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_home" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="last10_away" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,477 +447,2571 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>G</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>GC</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Pts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>15.349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>98</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79</v>
+      </c>
+      <c r="L2" t="n">
         <v>21</v>
       </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>13</v>
-      </c>
-      <c r="F2" t="n">
-        <v>26</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.6</v>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.794</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.308</v>
+      </c>
+      <c r="E3" t="n">
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>111</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
         <v>23</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.3</v>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>20.609</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.024</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>163</v>
+      </c>
+      <c r="K4" t="n">
+        <v>49</v>
+      </c>
+      <c r="L4" t="n">
+        <v>26</v>
+      </c>
+      <c r="M4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
-        <v>21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
+      <c r="N4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>13.423</v>
       </c>
       <c r="D5" t="n">
-        <v>16</v>
+        <v>5.938000000000001</v>
       </c>
       <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
+      <c r="H5" t="n">
+        <v>14</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>127</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>10.46</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>4.597</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>57</v>
+      </c>
+      <c r="K6" t="n">
+        <v>47</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>3.831</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>40</v>
+      </c>
+      <c r="L7" t="n">
+        <v>13</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.750999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="H8" t="n">
         <v>10</v>
       </c>
-      <c r="C8" t="n">
-        <v>18</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>17</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.7</v>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>64</v>
+      </c>
+      <c r="K8" t="n">
+        <v>52</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7.144</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.995000000000001</v>
+      </c>
+      <c r="E9" t="n">
         <v>10</v>
       </c>
-      <c r="C9" t="n">
-        <v>16</v>
-      </c>
-      <c r="D9" t="n">
-        <v>17</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-1</v>
-      </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62</v>
+      </c>
+      <c r="K9" t="n">
+        <v>95</v>
+      </c>
+      <c r="L9" t="n">
+        <v>9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>13</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8.032</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>68</v>
+      </c>
+      <c r="L10" t="n">
         <v>10</v>
       </c>
-      <c r="C10" t="n">
-        <v>14</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.5</v>
+      <c r="M10" t="n">
+        <v>10</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>5.078</v>
       </c>
       <c r="D11" t="n">
-        <v>13</v>
+        <v>5.484</v>
       </c>
       <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
-        <v>13</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.3</v>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>55</v>
+      </c>
+      <c r="K11" t="n">
+        <v>65</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>8.504</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9.199</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>6</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>81</v>
+      </c>
+      <c r="K12" t="n">
+        <v>78</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12</v>
+      </c>
+      <c r="M12" t="n">
+        <v>13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.398</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.815</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>82</v>
+      </c>
+      <c r="K13" t="n">
+        <v>55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>16</v>
+      </c>
+      <c r="M13" t="n">
+        <v>15</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Leicester</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9.380000000000001</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8.616</v>
+      </c>
+      <c r="E14" t="n">
+        <v>6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>61</v>
+      </c>
+      <c r="K14" t="n">
+        <v>90</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12</v>
+      </c>
+      <c r="M14" t="n">
+        <v>8</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>6</v>
+      </c>
+      <c r="C15" t="n">
+        <v>12.366</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.941</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>95</v>
+      </c>
+      <c r="K15" t="n">
+        <v>82</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13.847</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.917</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>12</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>94</v>
+      </c>
+      <c r="K16" t="n">
+        <v>71</v>
+      </c>
+      <c r="L16" t="n">
+        <v>17</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>7.523</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6.591</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>76</v>
+      </c>
+      <c r="L17" t="n">
+        <v>11</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
           <t>Bournemouth</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.303</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>49</v>
+      </c>
+      <c r="K18" t="n">
+        <v>45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>8.170999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.299</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J19" t="n">
+        <v>50</v>
+      </c>
+      <c r="K19" t="n">
+        <v>58</v>
+      </c>
+      <c r="L19" t="n">
+        <v>12</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8.144</v>
+      </c>
+      <c r="D20" t="n">
+        <v>9.862</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>15</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>53</v>
+      </c>
+      <c r="K20" t="n">
+        <v>78</v>
+      </c>
+      <c r="L20" t="n">
+        <v>13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>17</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Leeds</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>7.548999999999999</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12.421</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>65</v>
+      </c>
+      <c r="K21" t="n">
+        <v>73</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" t="n">
+        <v>17</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4.653</v>
+      </c>
+      <c r="D22" t="n">
+        <v>8.519</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-9</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>56</v>
+      </c>
+      <c r="K22" t="n">
+        <v>73</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>9</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Sheffield United</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>4</v>
+      </c>
+      <c r="C23" t="n">
+        <v>9.411</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10.023</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>15</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-11</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J23" t="n">
+        <v>61</v>
+      </c>
+      <c r="K23" t="n">
+        <v>66</v>
+      </c>
+      <c r="L23" t="n">
+        <v>14</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Southampton</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D24" t="n">
+        <v>10.219</v>
+      </c>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>13</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="n">
+        <v>77</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>15</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:R24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>played</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>xG</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>xGC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Pts</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>QS</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>QSC</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>BTTS%</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Blank%</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CS%</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>FG%</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>FC%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.945</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.264</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>90</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>6.927</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.734</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>58</v>
+      </c>
+      <c r="K3" t="n">
+        <v>51</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10.187</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.687</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86</v>
+      </c>
+      <c r="K4" t="n">
+        <v>50</v>
+      </c>
+      <c r="L4" t="n">
+        <v>11</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.433</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>67</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13</v>
+      </c>
+      <c r="M5" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7.962000000000001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.000999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>59</v>
+      </c>
+      <c r="K6" t="n">
+        <v>69</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.345</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.227</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J7" t="n">
+        <v>86</v>
+      </c>
+      <c r="K7" t="n">
+        <v>115</v>
+      </c>
+      <c r="L7" t="n">
+        <v>15</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.273</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.523</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>98</v>
+      </c>
+      <c r="K8" t="n">
+        <v>76</v>
+      </c>
+      <c r="L8" t="n">
+        <v>14</v>
+      </c>
+      <c r="M8" t="n">
+        <v>11</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5.931</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.842000000000001</v>
+      </c>
+      <c r="E9" t="n">
+        <v>8</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J9" t="n">
+        <v>56</v>
+      </c>
+      <c r="K9" t="n">
+        <v>53</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5.361999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.847</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J10" t="n">
+        <v>49</v>
+      </c>
+      <c r="K10" t="n">
+        <v>84</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.414</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.006</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K11" t="n">
+        <v>94</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>18</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>7.811</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>12.974</v>
       </c>
       <c r="E12" t="n">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="F12" t="n">
         <v>12</v>
       </c>
       <c r="G12" t="n">
-        <v>1.2</v>
+        <v>-3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J12" t="n">
+        <v>71</v>
+      </c>
+      <c r="K12" t="n">
+        <v>111</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8</v>
+      </c>
+      <c r="M12" t="n">
+        <v>15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7.046</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9.818999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>9</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>55</v>
+      </c>
+      <c r="L13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>16</v>
-      </c>
-      <c r="D13" t="n">
-        <v>21</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.2</v>
+      <c r="M13" t="n">
+        <v>13</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>5.788</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>9.32</v>
       </c>
       <c r="E14" t="n">
-        <v>-6</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.1</v>
+        <v>-3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>54</v>
+      </c>
+      <c r="K14" t="n">
+        <v>82</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>13</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>8.23</v>
       </c>
       <c r="D15" t="n">
-        <v>21</v>
+        <v>10.699</v>
       </c>
       <c r="E15" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" t="n">
-        <v>1.1</v>
+        <v>-4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J15" t="n">
+        <v>69</v>
+      </c>
+      <c r="K15" t="n">
+        <v>106</v>
+      </c>
+      <c r="L15" t="n">
+        <v>13</v>
+      </c>
+      <c r="M15" t="n">
+        <v>12</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>21</v>
+        <v>10.427</v>
       </c>
       <c r="D16" t="n">
-        <v>24</v>
+        <v>11.82</v>
       </c>
       <c r="E16" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>1.1</v>
+        <v>-2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J16" t="n">
+        <v>85</v>
+      </c>
+      <c r="K16" t="n">
+        <v>84</v>
+      </c>
+      <c r="L16" t="n">
+        <v>14</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>17</v>
+        <v>3.931</v>
       </c>
       <c r="D17" t="n">
-        <v>20</v>
+        <v>11.991</v>
       </c>
       <c r="E17" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
         <v>10</v>
       </c>
       <c r="G17" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>60</v>
+      </c>
+      <c r="K17" t="n">
+        <v>93</v>
+      </c>
+      <c r="L17" t="n">
         <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>4.771</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10.899</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="C18" t="n">
-        <v>12</v>
-      </c>
-      <c r="D18" t="n">
-        <v>19</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F18" t="n">
-        <v>9</v>
-      </c>
       <c r="G18" t="n">
-        <v>0.9</v>
+        <v>-4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J18" t="n">
+        <v>43</v>
+      </c>
+      <c r="K18" t="n">
+        <v>89</v>
+      </c>
+      <c r="L18" t="n">
+        <v>5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>4.238</v>
       </c>
       <c r="D19" t="n">
+        <v>11.734</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>12</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J19" t="n">
+        <v>35</v>
+      </c>
+      <c r="K19" t="n">
+        <v>92</v>
+      </c>
+      <c r="L19" t="n">
+        <v>6</v>
+      </c>
+      <c r="M19" t="n">
         <v>14</v>
       </c>
-      <c r="E19" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="N19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -927,72 +3022,171 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C20" t="n">
+        <v>6.647</v>
+      </c>
+      <c r="D20" t="n">
+        <v>10.801</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>48</v>
+      </c>
+      <c r="K20" t="n">
+        <v>91</v>
+      </c>
+      <c r="L20" t="n">
+        <v>12</v>
+      </c>
+      <c r="M20" t="n">
         <v>14</v>
       </c>
-      <c r="D20" t="n">
-        <v>26</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="N20" t="n">
         <v>0.6</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>3.883</v>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>13.236</v>
       </c>
       <c r="E21" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>-9</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J21" t="n">
+        <v>48</v>
+      </c>
+      <c r="K21" t="n">
+        <v>81</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>23</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>7.548999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>9.568999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>-15</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5</v>
+        <v>-5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>48</v>
+      </c>
+      <c r="K22" t="n">
+        <v>96</v>
+      </c>
+      <c r="L22" t="n">
+        <v>11</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="23">
@@ -1002,22 +3196,55 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.893</v>
+      </c>
+      <c r="D23" t="n">
+        <v>12.812</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-6</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>46</v>
+      </c>
+      <c r="K23" t="n">
+        <v>94</v>
+      </c>
+      <c r="L23" t="n">
         <v>10</v>
       </c>
-      <c r="C23" t="n">
+      <c r="M23" t="n">
         <v>13</v>
       </c>
-      <c r="D23" t="n">
-        <v>27</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-14</v>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
-      </c>
-      <c r="G23" t="n">
+      <c r="N23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O23" t="n">
         <v>0.2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +3254,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>3.715</v>
       </c>
       <c r="D24" t="n">
-        <v>33</v>
+        <v>12.576</v>
       </c>
       <c r="E24" t="n">
-        <v>-22</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
+        <v>15</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>48</v>
+      </c>
+      <c r="K24" t="n">
+        <v>75</v>
+      </c>
+      <c r="L24" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="n">
+      <c r="M24" t="n">
+        <v>18</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>0.2</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Dataframes, EDA and Predictive Modelling/EPL_last10.xlsx
+++ b/Excel Dataframes, EDA and Predictive Modelling/EPL_last10.xlsx
@@ -529,233 +529,233 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>15.349</v>
+        <v>13.65</v>
       </c>
       <c r="D2" t="n">
-        <v>10.11</v>
+        <v>4.442</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="J2" t="n">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="K2" t="n">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="L2" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="R2" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>14.794</v>
+        <v>18.638</v>
       </c>
       <c r="D3" t="n">
-        <v>3.308</v>
+        <v>4.352</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="K3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>20.609</v>
+        <v>13.653</v>
       </c>
       <c r="D4" t="n">
-        <v>5.024</v>
+        <v>8.777000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
         <v>6</v>
       </c>
-      <c r="G4" t="n">
-        <v>10</v>
-      </c>
       <c r="H4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="J4" t="n">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="K4" t="n">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="L4" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="R4" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>13.423</v>
+        <v>12.024</v>
       </c>
       <c r="D5" t="n">
-        <v>5.938000000000001</v>
+        <v>2.645</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="J5" t="n">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="K5" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="R5" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -819,249 +819,249 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.563</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.750999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
-        <v>8.940000000000001</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.831</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L7" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="O7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R7" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>7.563</v>
+        <v>8.940000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>4.750999999999999</v>
+        <v>3.831</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K8" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R8" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>7.144</v>
+        <v>9.01</v>
       </c>
       <c r="D9" t="n">
-        <v>9.995000000000001</v>
+        <v>8.032</v>
       </c>
       <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>72</v>
+      </c>
+      <c r="K9" t="n">
+        <v>68</v>
+      </c>
+      <c r="L9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" t="n">
-        <v>9</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>11</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>95</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9</v>
-      </c>
       <c r="M9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="O9" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="R9" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>9.01</v>
+        <v>5.078</v>
       </c>
       <c r="D10" t="n">
-        <v>8.032</v>
+        <v>5.484</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
       </c>
       <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
       <c r="I10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J10" t="n">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R10" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>5.078</v>
+        <v>9.879999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>5.484</v>
+        <v>10.351</v>
       </c>
       <c r="E11" t="n">
         <v>9</v>
@@ -1073,34 +1073,34 @@
         <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I11" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="K11" t="n">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="P11" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="R11" t="n">
         <v>0.5</v>
@@ -1109,59 +1109,59 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>5</v>
       </c>
       <c r="C12" t="n">
-        <v>8.504</v>
+        <v>6.106</v>
       </c>
       <c r="D12" t="n">
-        <v>9.199</v>
+        <v>9.439</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J12" t="n">
+        <v>49</v>
+      </c>
+      <c r="K12" t="n">
         <v>81</v>
       </c>
-      <c r="K12" t="n">
-        <v>78</v>
-      </c>
       <c r="L12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M12" t="n">
         <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O12" t="n">
         <v>0.4</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -1290,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>12.366</v>
+        <v>14.611</v>
       </c>
       <c r="D15" t="n">
-        <v>11.941</v>
+        <v>11.793</v>
       </c>
       <c r="E15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K15" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15" t="n">
         <v>15</v>
@@ -1332,10 +1332,10 @@
         <v>0.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="16">
@@ -1348,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.847</v>
+        <v>12.42</v>
       </c>
       <c r="D16" t="n">
-        <v>10.917</v>
+        <v>10.957</v>
       </c>
       <c r="E16" t="n">
         <v>12</v>
@@ -1369,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="L16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
         <v>0.8</v>
@@ -1406,19 +1406,19 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>7.523</v>
+        <v>6.788</v>
       </c>
       <c r="D17" t="n">
-        <v>6.591</v>
+        <v>6.295</v>
       </c>
       <c r="E17" t="n">
         <v>9</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H17" t="n">
         <v>6</v>
@@ -1427,16 +1427,16 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K17" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N17" t="n">
         <v>0.67</v>
@@ -1515,84 +1515,84 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9.888</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10.548</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>15</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-7</v>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="n">
-        <v>8.170999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>5.299</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
       <c r="I19" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="J19" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="K19" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="L19" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R19" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>8.144</v>
+        <v>11.292</v>
       </c>
       <c r="D20" t="n">
-        <v>9.862</v>
+        <v>7.478</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="H20" t="n">
         <v>3</v>
@@ -1601,31 +1601,31 @@
         <v>0.6</v>
       </c>
       <c r="J20" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="K20" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M20" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q20" t="n">
         <v>0.4</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1696,10 +1696,10 @@
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>4.653</v>
+        <v>5.461</v>
       </c>
       <c r="D22" t="n">
-        <v>8.519</v>
+        <v>7.59</v>
       </c>
       <c r="E22" t="n">
         <v>3</v>
@@ -1717,16 +1717,16 @@
         <v>0.4</v>
       </c>
       <c r="J22" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="K22" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N22" t="n">
         <v>0.4</v>
@@ -1751,46 +1751,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>9.411</v>
+        <v>9.612</v>
       </c>
       <c r="D23" t="n">
-        <v>10.023</v>
+        <v>12.508</v>
       </c>
       <c r="E23" t="n">
         <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K23" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="L23" t="n">
         <v>14</v>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N23" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2036,55 +2036,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>6.927</v>
+        <v>8.256</v>
       </c>
       <c r="D3" t="n">
-        <v>6.734</v>
+        <v>7.705</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L3" t="n">
         <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="R3" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2094,49 +2094,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>10.187</v>
+        <v>12.672</v>
       </c>
       <c r="D4" t="n">
-        <v>3.687</v>
+        <v>3.888</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="J4" t="n">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>9.433</v>
+        <v>10.053</v>
       </c>
       <c r="D5" t="n">
-        <v>6.34</v>
+        <v>8.477</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>6</v>
@@ -2176,16 +2176,16 @@
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K5" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" t="n">
         <v>0.6</v>
@@ -2197,10 +2197,10 @@
         <v>0.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2213,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.962000000000001</v>
+        <v>7.917000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>9.000999999999999</v>
+        <v>11.38</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -2234,16 +2234,16 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L6" t="n">
         <v>11</v>
       </c>
       <c r="M6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N6" t="n">
         <v>0.6</v>
@@ -2271,49 +2271,49 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>11.345</v>
+        <v>10.827</v>
       </c>
       <c r="D7" t="n">
-        <v>11.227</v>
+        <v>11.899</v>
       </c>
       <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
-      <c r="F7" t="n">
-        <v>9</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="J7" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K7" t="n">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N7" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.67</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
       </c>
       <c r="R7" t="n">
         <v>0.33</v>
@@ -2322,111 +2322,111 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
-        <v>11.273</v>
+        <v>7.967000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>9.523</v>
+        <v>12.441</v>
       </c>
       <c r="E8" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>66</v>
+      </c>
+      <c r="K8" t="n">
+        <v>104</v>
+      </c>
+      <c r="L8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="J8" t="n">
-        <v>98</v>
-      </c>
-      <c r="K8" t="n">
-        <v>76</v>
-      </c>
-      <c r="L8" t="n">
-        <v>14</v>
-      </c>
       <c r="M8" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.83</v>
+        <v>0.4</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P8" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R8" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.931</v>
+        <v>10.735</v>
       </c>
       <c r="D9" t="n">
-        <v>9.842000000000001</v>
+        <v>10.016</v>
       </c>
       <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
       <c r="I9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="J9" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K9" t="n">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" t="n">
         <v>0.5</v>
@@ -2438,44 +2438,44 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Chelsea</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5.361999999999999</v>
+        <v>9.077</v>
       </c>
       <c r="D10" t="n">
-        <v>11.847</v>
+        <v>14.204</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="J10" t="n">
+        <v>72</v>
+      </c>
+      <c r="K10" t="n">
+        <v>116</v>
+      </c>
+      <c r="L10" t="n">
         <v>11</v>
       </c>
-      <c r="G10" t="n">
-        <v>-2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="J10" t="n">
-        <v>49</v>
-      </c>
-      <c r="K10" t="n">
-        <v>84</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
       <c r="M10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -2496,191 +2496,191 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>6.414</v>
+        <v>5.931</v>
       </c>
       <c r="D11" t="n">
-        <v>14.006</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="J11" t="n">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K11" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N11" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R11" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>7.811</v>
+        <v>5.361999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>12.974</v>
+        <v>11.847</v>
       </c>
       <c r="E12" t="n">
         <v>9</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="J12" t="n">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K12" t="n">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N12" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="R12" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
-        <v>7.046</v>
+        <v>6.414</v>
       </c>
       <c r="D13" t="n">
-        <v>9.818999999999999</v>
+        <v>14.006</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G13" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J13" t="n">
         <v>45</v>
       </c>
       <c r="K13" t="n">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="R13" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>5.788</v>
+        <v>3.46</v>
       </c>
       <c r="D14" t="n">
-        <v>9.32</v>
+        <v>7.147</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
@@ -2701,22 +2701,22 @@
         <v>54</v>
       </c>
       <c r="K14" t="n">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="O14" t="n">
         <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0.5</v>
@@ -2728,59 +2728,59 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>8.23</v>
+        <v>7.046</v>
       </c>
       <c r="D15" t="n">
-        <v>10.699</v>
+        <v>9.818999999999999</v>
       </c>
       <c r="E15" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="n">
-        <v>8</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
       <c r="I15" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K15" t="n">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="n">
         <v>13</v>
       </c>
-      <c r="M15" t="n">
-        <v>12</v>
-      </c>
       <c r="N15" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -2793,19 +2793,19 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>10.427</v>
+        <v>10.916</v>
       </c>
       <c r="D16" t="n">
-        <v>11.82</v>
+        <v>10.426</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H16" t="n">
         <v>5</v>
@@ -2814,16 +2814,16 @@
         <v>0.83</v>
       </c>
       <c r="J16" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K16" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="L16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
         <v>0.33</v>
@@ -2844,26 +2844,26 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>3.931</v>
+        <v>4.331</v>
       </c>
       <c r="D17" t="n">
-        <v>11.991</v>
+        <v>7.603</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="H17" t="n">
         <v>4</v>
@@ -2872,114 +2872,114 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="K17" t="n">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.6</v>
       </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.4</v>
-      </c>
       <c r="R17" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>4.771</v>
+        <v>4.238</v>
       </c>
       <c r="D18" t="n">
-        <v>10.899</v>
+        <v>11.734</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="J18" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K18" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="R18" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>5</v>
       </c>
       <c r="C19" t="n">
-        <v>4.238</v>
+        <v>6.647</v>
       </c>
       <c r="D19" t="n">
-        <v>11.734</v>
+        <v>10.801</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
@@ -2988,13 +2988,13 @@
         <v>0.6</v>
       </c>
       <c r="J19" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="K19" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M19" t="n">
         <v>14</v>
@@ -3009,93 +3009,93 @@
         <v>0.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>5</v>
       </c>
       <c r="C20" t="n">
-        <v>6.647</v>
+        <v>5.865</v>
       </c>
       <c r="D20" t="n">
-        <v>10.801</v>
+        <v>9.888</v>
       </c>
       <c r="E20" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>60</v>
+      </c>
+      <c r="K20" t="n">
+        <v>92</v>
+      </c>
+      <c r="L20" t="n">
+        <v>8</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O20" t="n">
         <v>0.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>48</v>
-      </c>
-      <c r="K20" t="n">
-        <v>91</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12</v>
-      </c>
-      <c r="M20" t="n">
-        <v>14</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.2</v>
       </c>
       <c r="P20" t="n">
         <v>0.2</v>
       </c>
       <c r="Q20" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R20" t="n">
         <v>0.6</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Leicester</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.883</v>
+        <v>7.548999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>13.236</v>
+        <v>9.568999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G21" t="n">
-        <v>-9</v>
+        <v>-5</v>
       </c>
       <c r="H21" t="n">
         <v>2</v>
@@ -3107,13 +3107,13 @@
         <v>48</v>
       </c>
       <c r="K21" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="N21" t="n">
         <v>0.8</v>
@@ -3122,56 +3122,56 @@
         <v>0.2</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="Q21" t="n">
         <v>0.2</v>
       </c>
       <c r="R21" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Leicester</t>
+          <t>Southampton</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>7.548999999999999</v>
+        <v>6.893</v>
       </c>
       <c r="D22" t="n">
-        <v>9.568999999999999</v>
+        <v>12.812</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F22" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K22" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N22" t="n">
         <v>0.8</v>
@@ -3180,10 +3180,10 @@
         <v>0.2</v>
       </c>
       <c r="P22" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R22" t="n">
         <v>0.6</v>
@@ -3192,26 +3192,26 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southampton</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>6.893</v>
+        <v>2.514</v>
       </c>
       <c r="D23" t="n">
-        <v>12.812</v>
+        <v>13.525</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
@@ -3220,16 +3220,16 @@
         <v>0.2</v>
       </c>
       <c r="J23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23" t="n">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="L23" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N23" t="n">
         <v>0.8</v>
